--- a/imoveis_tratados.xlsx
+++ b/imoveis_tratados.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IPTU 2.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IPTU 100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>IPTU 490</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>IPTU 130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>IPTU 200</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>IPTU 250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
